--- a/data/trans_camb/IP25-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP25-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 12,41</t>
+          <t>-1,77; 11,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 12,7</t>
+          <t>-0,96; 11,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-93,73; -82,7</t>
+          <t>-94,24; -83,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 6,94</t>
+          <t>-5,14; 6,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 3,36</t>
+          <t>-12,41; 3,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-96,54; -87,93</t>
+          <t>-96,48; -88,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 7,3</t>
+          <t>-1,55; 7,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 6,46</t>
+          <t>-4,53; 5,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-94,28; -87,45</t>
+          <t>-94,05; -87,48</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 14,85</t>
+          <t>-1,88; 14,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 15,02</t>
+          <t>-1,03; 14,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 7,67</t>
+          <t>-5,4; 6,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 3,69</t>
+          <t>-13,14; 3,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 8,24</t>
+          <t>-1,68; 8,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 7,25</t>
+          <t>-4,85; 6,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 6,34</t>
+          <t>-0,23; 6,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,77</t>
+          <t>0,94; 7,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-90,88; -86,27</t>
+          <t>-91,06; -86,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 0,25</t>
+          <t>-6,42; 0,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,26</t>
+          <t>-3,09; 3,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-93,02; -88,3</t>
+          <t>-93,0; -88,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,56</t>
+          <t>-2,27; 2,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,24</t>
+          <t>0,15; 4,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-91,34; -88,2</t>
+          <t>-91,37; -88,17</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,27</t>
+          <t>-0,26; 7,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,81</t>
+          <t>1,04; 8,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 0,29</t>
+          <t>-7,01; 0,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,64</t>
+          <t>-3,33; 3,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,88</t>
+          <t>-2,53; 2,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,79</t>
+          <t>0,16; 4,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 11,05</t>
+          <t>-1,49; 11,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 10,39</t>
+          <t>-2,29; 10,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-87,33; -77,52</t>
+          <t>-87,29; -77,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 8,01</t>
+          <t>-3,27; 8,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 4,91</t>
+          <t>-7,24; 4,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-90,98; -82,7</t>
+          <t>-90,69; -82,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 7,65</t>
+          <t>-0,47; 7,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 6,02</t>
+          <t>-3,17; 5,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-87,7; -81,52</t>
+          <t>-88,01; -81,66</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 14,19</t>
+          <t>-1,73; 14,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 13,22</t>
+          <t>-2,69; 13,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 9,56</t>
+          <t>-3,54; 9,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 5,85</t>
+          <t>-8,02; 5,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 9,22</t>
+          <t>-0,57; 9,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 7,34</t>
+          <t>-3,61; 6,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,35</t>
+          <t>1,02; 6,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,36</t>
+          <t>1,01; 6,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-89,52; -85,66</t>
+          <t>-89,33; -85,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,22</t>
+          <t>-3,61; 1,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,13</t>
+          <t>-3,12; 1,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-91,98; -88,46</t>
+          <t>-91,93; -88,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,1</t>
+          <t>-0,7; 3,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,63</t>
+          <t>-0,13; 3,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-90,13; -87,46</t>
+          <t>-90,15; -87,52</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,42</t>
+          <t>1,16; 7,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,38</t>
+          <t>1,15; 7,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 1,37</t>
+          <t>-3,95; 1,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,38</t>
+          <t>-3,42; 2,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,52</t>
+          <t>-0,78; 3,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,17</t>
+          <t>-0,14; 3,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">

--- a/data/trans_camb/IP25-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP25-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-92,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-89,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-91,12</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 7,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,16; 3,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,39; -87,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 11,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 12,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,48; -82,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 7,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 6,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,0; -87,16</t>
         </is>
       </c>
     </row>
@@ -738,42 +738,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -791,42 +791,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-4,76; 7,99</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-12,65; 3,41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 14,33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 14,43</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 8,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 6,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-89,22</t>
+          <t>-91,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-92,94</t>
+          <t>-88,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-91,12</t>
+          <t>-89,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 11,8</t>
+          <t>-6,27; 0,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 11,97</t>
+          <t>-2,75; 3,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-94,24; -83,34</t>
+          <t>-93,04; -88,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 6,29</t>
+          <t>-0,31; 6,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 3,19</t>
+          <t>0,68; 6,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-96,48; -88,18</t>
+          <t>-91,12; -86,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 7,28</t>
+          <t>-2,42; 2,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 5,88</t>
+          <t>-0,03; 4,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-94,05; -87,48</t>
+          <t>-91,38; -88,16</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,94%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 14,0</t>
+          <t>-6,79; 0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 14,3</t>
+          <t>-2,93; 3,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 6,99</t>
+          <t>-0,34; 7,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 3,58</t>
+          <t>0,75; 7,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 8,31</t>
+          <t>-2,66; 2,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 6,71</t>
+          <t>-0,03; 4,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-88,76</t>
+          <t>-87,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-91,05</t>
+          <t>-82,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-89,83</t>
+          <t>-85,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 6,37</t>
+          <t>-3,34; 8,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 7,1</t>
+          <t>-7,23; 4,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-91,06; -86,34</t>
+          <t>-90,99; -82,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,21</t>
+          <t>-1,09; 11,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,12</t>
+          <t>-2,4; 10,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-93,0; -88,54</t>
+          <t>-86,91; -77,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 2,19</t>
+          <t>-0,79; 7,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,24</t>
+          <t>-2,75; 5,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-91,37; -88,17</t>
+          <t>-87,97; -81,58</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>-1,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 7,34</t>
+          <t>-3,73; 9,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 8,18</t>
+          <t>-8,01; 5,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 0,22</t>
+          <t>-1,28; 14,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,52</t>
+          <t>-2,8; 12,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,46</t>
+          <t>-0,9; 9,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,8</t>
+          <t>-3,15; 7,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-82,88</t>
+          <t>-90,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-87,16</t>
+          <t>-87,52</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-85,11</t>
+          <t>-88,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 11,06</t>
+          <t>-3,85; 1,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 10,46</t>
+          <t>-2,99; 2,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-87,29; -77,5</t>
+          <t>-91,99; -88,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 8,0</t>
+          <t>0,95; 6,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,96</t>
+          <t>1,33; 6,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-90,69; -82,1</t>
+          <t>-89,46; -85,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 7,79</t>
+          <t>-0,57; 3,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 5,46</t>
+          <t>-0,18; 3,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-88,01; -81,66</t>
+          <t>-90,18; -87,49</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,05%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 14,01</t>
+          <t>-4,22; 1,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 13,3</t>
+          <t>-3,26; 2,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 9,66</t>
+          <t>1,05; 7,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 5,86</t>
+          <t>1,48; 7,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 9,25</t>
+          <t>-0,64; 3,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 6,58</t>
+          <t>-0,2; 3,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1484,237 +1484,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-87,54</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-90,31</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-88,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 6,37</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 6,35</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-89,33; -85,61</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 1,5</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 1,98</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-91,93; -88,37</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 3,06</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 3,44</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-90,15; -87,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>4,25%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>4,33%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-1,36%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-0,54%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 7,45</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 7,43</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 1,72</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 2,21</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 3,46</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 3,93</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
